--- a/FlipkartKiwiqaFramework/Data/Export2.xlsx
+++ b/FlipkartKiwiqaFramework/Data/Export2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="29">
   <si>
     <t>Realme 5i (Forest Green, 128 GB)</t>
   </si>
@@ -114,7 +114,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,8 +146,14 @@
       <color indexed="49"/>
       <b val="true"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="49"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +163,16 @@
     <fill>
       <patternFill patternType="none">
         <bgColor indexed="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="8"/>
       </patternFill>
     </fill>
     <fill>
@@ -212,13 +228,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" applyFont="true" borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFill="true" applyFont="true" borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyFill="true" applyFont="true" borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -513,194 +530,194 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="5">
+      <c r="A1" t="s" s="6">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="5">
+      <c r="B1" t="s" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="5">
+      <c r="A2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" t="s" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="5">
+      <c r="A3" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" t="s" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="5">
+      <c r="A4" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="B4" t="s" s="5">
+      <c r="B7" t="s" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="5">
+    <row r="8">
+      <c r="A8" t="s" s="6">
         <v>7</v>
       </c>
-      <c r="B5" t="s" s="5">
+      <c r="B8" t="s" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s" s="5">
+    <row r="9">
+      <c r="A9" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="6">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="6">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="6">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="5">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s" s="5">
+    <row r="16">
+      <c r="A16" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="6">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s" s="5">
+    <row r="20">
+      <c r="A20" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s" s="5">
+    <row r="22">
+      <c r="A22" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s" s="5">
+    <row r="23">
+      <c r="A23" t="s" s="6">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s" s="5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="5">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="5">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s" s="5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s" s="5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="B20" t="s" s="5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="5">
-        <v>27</v>
-      </c>
-      <c r="B21" t="s" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="5">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="5">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s" s="5">
-        <v>6</v>
-      </c>
-    </row>
     <row r="24">
-      <c r="A24" t="s" s="5">
+      <c r="A24" t="s" s="6">
         <v>28</v>
       </c>
-      <c r="B24" t="s" s="5">
+      <c r="B24" t="s" s="6">
         <v>17</v>
       </c>
     </row>

--- a/FlipkartKiwiqaFramework/Data/Export2.xlsx
+++ b/FlipkartKiwiqaFramework/Data/Export2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="29">
   <si>
     <t>Realme 5i (Forest Green, 128 GB)</t>
   </si>
@@ -114,7 +114,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,8 +152,14 @@
       <color indexed="49"/>
       <b val="true"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="49"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +169,16 @@
     <fill>
       <patternFill patternType="none">
         <bgColor indexed="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="8"/>
       </patternFill>
     </fill>
     <fill>
@@ -228,14 +244,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" applyFont="true" borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFill="true" applyFont="true" borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyFill="true" applyFont="true" borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0"/>
     <xf applyFill="true" applyFont="true" borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="12" fontId="5" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -530,194 +547,194 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="6">
+      <c r="A1" t="s" s="7">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="6">
+      <c r="B1" t="s" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="6">
+      <c r="A2" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="B2" t="s" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="6">
+      <c r="A3" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" t="s" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="6">
+      <c r="A4" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="B4" t="s" s="6">
+      <c r="B4" t="s" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="6">
+      <c r="A5" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="B5" t="s" s="6">
+      <c r="B5" t="s" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="6">
+      <c r="A6" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="B6" t="s" s="6">
+      <c r="B6" t="s" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="6">
+      <c r="A7" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="B7" t="s" s="6">
+      <c r="B7" t="s" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="6">
+      <c r="A8" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="6">
+      <c r="B8" t="s" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="6">
+      <c r="A9" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="B9" t="s" s="6">
+      <c r="B9" t="s" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="6">
+      <c r="A10" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="B10" t="s" s="6">
+      <c r="B10" t="s" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="6">
+      <c r="A11" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="B11" t="s" s="6">
+      <c r="B11" t="s" s="7">
         <v>15</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="6">
+      <c r="A12" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="B12" t="s" s="6">
+      <c r="B12" t="s" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="6">
+      <c r="A13" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="B13" t="s" s="6">
+      <c r="B13" t="s" s="7">
         <v>17</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="6">
+      <c r="A14" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="B14" t="s" s="6">
+      <c r="B14" t="s" s="7">
         <v>21</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="6">
+      <c r="A15" t="s" s="7">
         <v>25</v>
       </c>
-      <c r="B15" t="s" s="6">
+      <c r="B15" t="s" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="6">
+      <c r="A16" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="B16" t="s" s="6">
+      <c r="B16" t="s" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="6">
+      <c r="A17" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="B17" t="s" s="6">
+      <c r="B17" t="s" s="7">
         <v>21</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="6">
+      <c r="A18" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="B18" t="s" s="6">
+      <c r="B18" t="s" s="7">
         <v>21</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="6">
+      <c r="A19" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="B19" t="s" s="6">
+      <c r="B19" t="s" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="6">
+      <c r="A20" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="B20" t="s" s="6">
+      <c r="B20" t="s" s="7">
         <v>21</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="6">
+      <c r="A21" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="B21" t="s" s="6">
+      <c r="B21" t="s" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="6">
+      <c r="A22" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="B22" t="s" s="6">
+      <c r="B22" t="s" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="6">
+      <c r="A23" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="B23" t="s" s="6">
+      <c r="B23" t="s" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="6">
+      <c r="A24" t="s" s="7">
         <v>28</v>
       </c>
-      <c r="B24" t="s" s="6">
+      <c r="B24" t="s" s="7">
         <v>17</v>
       </c>
     </row>
